--- a/dmsan/bwaise/scores/other_tech_scores.xlsx
+++ b/dmsan/bwaise/scores/other_tech_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="13_ncr:1_{2DC58649-EA64-A941-8BC7-2C09628A1C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E611D3AE-F7DE-4047-9B70-868E2D1E7935}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{2DC58649-EA64-A941-8BC7-2C09628A1C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8B7E9D-053A-874D-B2CC-8968C0214167}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="500" windowWidth="34700" windowHeight="19540" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -936,10 +936,10 @@
     <t>N/A (not in spreadsheet)</t>
   </si>
   <si>
-    <t>simulated in _sys_simulation.py</t>
-  </si>
-  <si>
-    <t>baseline from here, uncertainty values consistent with input parameters used in _sys_simulation.py</t>
+    <t>baseline from here, uncertainty values consistent with input parameters used in sys_simulation.py</t>
+  </si>
+  <si>
+    <t>simulated in sys_simulation.py</t>
   </si>
 </sst>
 </file>
@@ -1404,8 +1404,8 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1723,7 +1723,7 @@
         <v>150</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -1747,7 +1747,7 @@
         <v>150</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -1771,7 +1771,7 @@
         <v>150</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -1795,7 +1795,7 @@
         <v>150</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -1843,7 +1843,7 @@
         <v>204</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H18" s="11"/>
     </row>
@@ -1867,7 +1867,7 @@
         <v>204</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H19" s="11"/>
     </row>
@@ -1891,7 +1891,7 @@
         <v>204</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H20" s="11"/>
     </row>
@@ -1915,7 +1915,7 @@
         <v>54</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1938,7 +1938,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -1986,7 +1986,7 @@
         <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -2033,7 +2033,7 @@
         <v>79</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">

--- a/dmsan/bwaise/scores/other_tech_scores.xlsx
+++ b/dmsan/bwaise/scores/other_tech_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{2DC58649-EA64-A941-8BC7-2C09628A1C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8B7E9D-053A-874D-B2CC-8968C0214167}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{2DC58649-EA64-A941-8BC7-2C09628A1C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3310B9E-B2D1-494B-A9AA-521919D30866}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="880" yWindow="2460" windowWidth="28800" windowHeight="15880" firstSheet="9" activeTab="18" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -21,20 +21,19 @@
     <sheet name="construction_skills" sheetId="6" r:id="rId6"/>
     <sheet name="OM_complexity" sheetId="7" r:id="rId7"/>
     <sheet name="pop_flexibility" sheetId="8" r:id="rId8"/>
-    <sheet name="storm_flexibility" sheetId="9" r:id="rId9"/>
-    <sheet name="electricity_flexibility" sheetId="10" r:id="rId10"/>
-    <sheet name="drought_flexibility" sheetId="11" r:id="rId11"/>
-    <sheet name="water_reuse" sheetId="29" r:id="rId12"/>
-    <sheet name="supply_chain" sheetId="34" r:id="rId13"/>
-    <sheet name="design_job_creation" sheetId="14" r:id="rId14"/>
-    <sheet name="design_high_pay_jobs" sheetId="15" r:id="rId15"/>
-    <sheet name="end_user_disposal" sheetId="16" r:id="rId16"/>
-    <sheet name="end_user_cleaning" sheetId="17" r:id="rId17"/>
-    <sheet name="privacy" sheetId="36" r:id="rId18"/>
-    <sheet name="odor" sheetId="19" r:id="rId19"/>
-    <sheet name="security" sheetId="22" r:id="rId20"/>
-    <sheet name="management_disposal" sheetId="23" r:id="rId21"/>
-    <sheet name="management_cleaning" sheetId="26" r:id="rId22"/>
+    <sheet name="electricity_flexibility" sheetId="10" r:id="rId9"/>
+    <sheet name="drought_flexibility" sheetId="11" r:id="rId10"/>
+    <sheet name="water_reuse" sheetId="29" r:id="rId11"/>
+    <sheet name="supply_chain" sheetId="34" r:id="rId12"/>
+    <sheet name="design_job_creation" sheetId="14" r:id="rId13"/>
+    <sheet name="design_high_pay_jobs" sheetId="15" r:id="rId14"/>
+    <sheet name="end_user_disposal" sheetId="16" r:id="rId15"/>
+    <sheet name="end_user_cleaning" sheetId="17" r:id="rId16"/>
+    <sheet name="privacy" sheetId="36" r:id="rId17"/>
+    <sheet name="odor" sheetId="19" r:id="rId18"/>
+    <sheet name="security" sheetId="22" r:id="rId19"/>
+    <sheet name="management_disposal" sheetId="23" r:id="rId20"/>
+    <sheet name="management_cleaning" sheetId="26" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -316,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="201">
   <si>
     <t>Criteria</t>
   </si>
@@ -447,18 +446,6 @@
     <t>pop_flexibility_3</t>
   </si>
   <si>
-    <t>impact of storms</t>
-  </si>
-  <si>
-    <t>storm_flexibility_1</t>
-  </si>
-  <si>
-    <t>storm_flexibility_2</t>
-  </si>
-  <si>
-    <t>storm_flexibility_3</t>
-  </si>
-  <si>
     <t>impact of droughts</t>
   </si>
   <si>
@@ -624,9 +611,6 @@
     <t>pop_flexibility</t>
   </si>
   <si>
-    <t>Impact of storms</t>
-  </si>
-  <si>
     <t>indicator</t>
   </si>
   <si>
@@ -639,9 +623,6 @@
     <t>system</t>
   </si>
   <si>
-    <t>storm_flexibility</t>
-  </si>
-  <si>
     <t>drought_flexibility</t>
   </si>
   <si>
@@ -910,9 +891,6 @@
   </si>
   <si>
     <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
   </si>
   <si>
     <t>electricity_flexibility_1</t>
@@ -1402,10 +1380,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1423,37 +1401,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1470,13 +1448,13 @@
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -1493,13 +1471,13 @@
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1516,13 +1494,13 @@
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1539,13 +1517,13 @@
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1562,13 +1540,13 @@
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1585,13 +1563,13 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -1609,13 +1587,13 @@
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -1631,15 +1609,15 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -1655,483 +1633,459 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2"/>
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>16</v>
+        <v>144</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="15"/>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>207</v>
-      </c>
+      <c r="F21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>11</v>
+      <c r="B28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="H31" s="13"/>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H30" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2141,135 +2095,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B6589-CCE9-E840-BD14-4101024F6783}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42364C5-9A17-1840-801C-E3F8B85A8FA6}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -2284,16 +2109,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2316,7 +2141,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2325,10 +2150,10 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2342,7 +2167,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2351,10 +2176,10 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -2368,7 +2193,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2377,10 +2202,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -2398,7 +2223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FC7374-1BFE-4047-B173-DE11D9D2DE36}">
   <sheetPr>
     <tabColor theme="2" tint="0.39997558519241921"/>
@@ -2413,16 +2238,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2445,22 +2270,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2471,22 +2296,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2497,22 +2322,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
         <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2526,7 +2351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3730C0-374F-4FC5-B70C-7EA120C190D0}">
   <sheetPr>
     <tabColor theme="2" tint="0.39997558519241921"/>
@@ -2541,16 +2366,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2573,22 +2398,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
         <v>151</v>
       </c>
-      <c r="D2" t="s">
-        <v>157</v>
-      </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2599,22 +2424,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" t="s">
-        <v>157</v>
-      </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2625,22 +2450,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
         <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2655,7 +2480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00726486-B842-2041-98FE-2E8568208BFC}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2667,16 +2492,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2699,22 +2524,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -2725,22 +2550,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -2757,22 +2582,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2788,7 +2613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E852E00B-F08F-4441-9F51-5EFD877FF5B7}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2800,16 +2625,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2832,22 +2657,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2858,22 +2683,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -2884,22 +2709,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2914,12 +2739,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5107C111-3804-1240-99DA-17B1CE3A7796}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2929,16 +2754,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2961,101 +2786,107 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <f>1/0.8</f>
+        <v>1.25</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <f>1/2.4</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I2">
-        <v>2.4</v>
+        <f>1/0.3</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3">
-        <v>0.8</v>
+        <f>1/0.8</f>
+        <v>1.25</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <f>1/2.4</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I3">
-        <v>2.4</v>
+        <f>1/0.3</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <f>365/3.5</f>
         <v>104.28571428571429</v>
       </c>
       <c r="H4">
+        <f>365/9</f>
+        <v>40.555555555555557</v>
+      </c>
+      <c r="I4">
         <f>365/1</f>
         <v>365</v>
       </c>
-      <c r="I4">
-        <f>365/9</f>
-        <v>40.555555555555557</v>
-      </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3065,7 +2896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC106D18-8739-4443-BF99-297A6DF00AC3}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -3080,16 +2911,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3112,19 +2943,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -3138,19 +2969,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -3164,19 +2995,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3194,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC079F57-3A5F-6D4C-90B0-82D26B5B99FE}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -3206,16 +3037,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3238,22 +3069,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3270,22 +3101,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3302,22 +3133,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3338,7 +3169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32E946-C34C-F245-9D79-E6F684B40381}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -3350,16 +3181,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3382,19 +3213,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -3408,19 +3239,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -3434,19 +3265,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3460,6 +3291,131 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172A0A8-D530-E347-B58E-45BBE3162EF9}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3482,16 +3438,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3514,7 +3470,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3540,7 +3496,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3566,7 +3522,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3597,131 +3553,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172A0A8-D530-E347-B58E-45BBE3162EF9}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E332F5F-32EC-C046-8FDB-241E5C1F829A}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -3733,16 +3564,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3765,19 +3596,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -3791,19 +3622,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -3817,19 +3648,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3847,7 +3678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E922356-1DFC-4726-8591-7B465EEC758C}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -3859,16 +3690,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3891,19 +3722,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -3917,19 +3748,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -3943,19 +3774,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3991,16 +3822,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4023,7 +3854,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4049,7 +3880,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4075,7 +3906,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4124,16 +3955,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4156,7 +3987,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4182,7 +4013,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4208,7 +4039,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4256,16 +4087,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4288,7 +4119,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4314,7 +4145,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4340,7 +4171,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4385,16 +4216,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4417,7 +4248,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4443,7 +4274,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4469,7 +4300,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4514,16 +4345,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4546,7 +4377,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4572,7 +4403,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4598,7 +4429,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4646,16 +4477,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4678,7 +4509,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4704,7 +4535,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4730,7 +4561,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4761,30 +4592,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D592A08C-2F04-A943-8DF6-E4544488FB02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B6589-CCE9-E840-BD14-4101024F6783}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4807,7 +4638,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4816,16 +4647,16 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -4833,7 +4664,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4842,16 +4673,16 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -4859,7 +4690,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4868,10 +4699,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>

--- a/dmsan/bwaise/scores/other_tech_scores.xlsx
+++ b/dmsan/bwaise/scores/other_tech_scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{2DC58649-EA64-A941-8BC7-2C09628A1C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3310B9E-B2D1-494B-A9AA-521919D30866}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{2DC58649-EA64-A941-8BC7-2C09628A1C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553599FA-DB45-224D-A0C1-2CAE6D1A0297}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="2460" windowWidth="28800" windowHeight="15880" firstSheet="9" activeTab="18" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <sheet name="management_disposal" sheetId="23" r:id="rId20"/>
     <sheet name="management_cleaning" sheetId="26" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3030,7 +3030,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3300,7 +3300,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3357,7 +3357,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -3383,7 +3383,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -3409,7 +3409,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>

--- a/dmsan/bwaise/scores/other_tech_scores.xlsx
+++ b/dmsan/bwaise/scores/other_tech_scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/bwaise/scores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Documents/GitHub/DMsan/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{2DC58649-EA64-A941-8BC7-2C09628A1C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553599FA-DB45-224D-A0C1-2CAE6D1A0297}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DB584C-EB11-B442-8EEC-E18E39C51AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="2460" windowWidth="28800" windowHeight="15880" firstSheet="9" activeTab="18" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="0" yWindow="1240" windowWidth="28800" windowHeight="15880" firstSheet="9" activeTab="18" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="management_disposal" sheetId="23" r:id="rId20"/>
     <sheet name="management_cleaning" sheetId="26" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3409,7 +3409,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>

--- a/dmsan/bwaise/scores/other_tech_scores.xlsx
+++ b/dmsan/bwaise/scores/other_tech_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Documents/GitHub/DMsan/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DB584C-EB11-B442-8EEC-E18E39C51AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B7228C-4025-1B46-A0A9-B6B24CB47259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1240" windowWidth="28800" windowHeight="15880" firstSheet="9" activeTab="18" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="0" yWindow="1220" windowWidth="28800" windowHeight="15880" firstSheet="1" activeTab="9" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2101,8 +2101,8 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2185,7 +2185,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -2211,7 +2211,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -2359,7 +2359,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3299,7 +3299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172A0A8-D530-E347-B58E-45BBE3162EF9}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3428,7 +3428,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3683,7 +3683,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dmsan/bwaise/scores/other_tech_scores.xlsx
+++ b/dmsan/bwaise/scores/other_tech_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Documents/GitHub/DMsan/dmsan/bwaise/scores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B7228C-4025-1B46-A0A9-B6B24CB47259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{27B7228C-4025-1B46-A0A9-B6B24CB47259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77FF8481-34B6-5248-B370-EB4DBB48F8AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1220" windowWidth="28800" windowHeight="15880" firstSheet="1" activeTab="9" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="0" yWindow="1220" windowWidth="28800" windowHeight="15880" firstSheet="2" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -581,9 +581,6 @@
     <t>management acceptability</t>
   </si>
   <si>
-    <t>Performance Indicator</t>
-  </si>
-  <si>
     <t>Sub-Criteria</t>
   </si>
   <si>
@@ -659,9 +656,6 @@
     <t>Resource Recovery Potential</t>
   </si>
   <si>
-    <t>Net daily user cost</t>
-  </si>
-  <si>
     <t>Net Annualized Costs</t>
   </si>
   <si>
@@ -918,6 +912,12 @@
   </si>
   <si>
     <t>simulated in sys_simulation.py</t>
+  </si>
+  <si>
+    <t>Net annual user cost</t>
+  </si>
+  <si>
+    <t>Technology Indicator</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1382,8 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,37 +1401,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -1635,22 +1635,22 @@
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>145</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>16</v>
@@ -1659,115 +1659,115 @@
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>11</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>47</v>
@@ -1794,22 +1794,22 @@
         <v>48</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>47</v>
@@ -1818,22 +1818,22 @@
         <v>48</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>47</v>
@@ -1842,45 +1842,45 @@
         <v>48</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>51</v>
@@ -1892,19 +1892,19 @@
         <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>51</v>
@@ -1922,42 +1922,42 @@
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -1969,42 +1969,42 @@
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>11</v>
@@ -2018,16 +2018,16 @@
         <v>85</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>11</v>
@@ -2038,19 +2038,19 @@
     </row>
     <row r="28" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>66</v>
@@ -2062,19 +2062,19 @@
     </row>
     <row r="29" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>11</v>
@@ -2101,7 +2101,7 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2109,16 +2109,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2238,16 +2238,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2270,22 +2270,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2296,22 +2296,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
         <v>145</v>
       </c>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2322,22 +2322,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2366,16 +2366,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2398,22 +2398,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2424,22 +2424,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
         <v>151</v>
       </c>
-      <c r="E3" t="s">
-        <v>153</v>
-      </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2450,22 +2450,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2492,16 +2492,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2625,16 +2625,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2754,16 +2754,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -2816,12 +2816,12 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -2851,12 +2851,12 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2886,7 +2886,7 @@
         <v>365</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2911,16 +2911,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -3037,16 +3037,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -3181,16 +3181,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -3307,16 +3307,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -3438,16 +3438,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3564,16 +3564,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -3605,10 +3605,10 @@
         <v>87</v>
       </c>
       <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
         <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -3631,10 +3631,10 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -3657,10 +3657,10 @@
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3690,16 +3690,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -3731,10 +3731,10 @@
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -3757,10 +3757,10 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -3783,10 +3783,10 @@
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3822,16 +3822,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3955,16 +3955,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4087,16 +4087,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4216,16 +4216,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4345,16 +4345,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4477,16 +4477,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4606,16 +4606,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4647,10 +4647,10 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4673,10 +4673,10 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4699,10 +4699,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>

--- a/dmsan/bwaise/scores/other_tech_scores.xlsx
+++ b/dmsan/bwaise/scores/other_tech_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{27B7228C-4025-1B46-A0A9-B6B24CB47259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77FF8481-34B6-5248-B370-EB4DBB48F8AA}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{27B7228C-4025-1B46-A0A9-B6B24CB47259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81953306-0134-EF4E-8EF8-A70633C1D28A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1220" windowWidth="28800" windowHeight="15880" firstSheet="2" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="1820" yWindow="560" windowWidth="28800" windowHeight="15880" firstSheet="6" activeTab="14" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -131,11 +131,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pulled from _sys_simulation.py</t>
+          <t xml:space="preserve">pulled from 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sys_simulation.py</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{AE7A93F6-0064-FC4B-B471-D32AC9363B90}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{D9CCE742-8A0B-894D-9CB3-A6E28D240A65}">
       <text>
         <r>
           <rPr>
@@ -164,11 +174,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pulled from _sys_simulation.py</t>
+          <t xml:space="preserve">pulled from 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sys_simulation.py</t>
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{C4F77FA8-D8C5-EA4F-97FF-722D2CF0D48A}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{902E7A98-3147-D34C-93C1-B248E8501490}">
       <text>
         <r>
           <rPr>
@@ -197,7 +217,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pulled from _sys_simulation.py</t>
+          <t xml:space="preserve">pulled from 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sys_simulation.py</t>
         </r>
       </text>
     </comment>
@@ -1382,7 +1412,7 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2743,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5107C111-3804-1240-99DA-17B1CE3A7796}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3812,7 +3842,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
